--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_16ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_16ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2552,28 +2552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>175.8271689377605</v>
+        <v>254.1353391005463</v>
       </c>
       <c r="AB2" t="n">
-        <v>240.5744894877702</v>
+        <v>347.7191826170862</v>
       </c>
       <c r="AC2" t="n">
-        <v>217.6143978595437</v>
+        <v>314.5333518551531</v>
       </c>
       <c r="AD2" t="n">
-        <v>175827.1689377606</v>
+        <v>254135.3391005463</v>
       </c>
       <c r="AE2" t="n">
-        <v>240574.4894877702</v>
+        <v>347719.1826170862</v>
       </c>
       <c r="AF2" t="n">
         <v>1.005560907437033e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.59895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>217614.3978595437</v>
+        <v>314533.351855153</v>
       </c>
     </row>
     <row r="3">
@@ -2658,28 +2658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>151.7364201411777</v>
+        <v>220.15458380713</v>
       </c>
       <c r="AB3" t="n">
-        <v>207.6124641754745</v>
+        <v>301.2252140995366</v>
       </c>
       <c r="AC3" t="n">
-        <v>187.7982219805499</v>
+        <v>272.4767024382091</v>
       </c>
       <c r="AD3" t="n">
-        <v>151736.4201411777</v>
+        <v>220154.58380713</v>
       </c>
       <c r="AE3" t="n">
-        <v>207612.4641754745</v>
+        <v>301225.2140995366</v>
       </c>
       <c r="AF3" t="n">
         <v>1.16870449188366e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.4375</v>
       </c>
       <c r="AH3" t="n">
-        <v>187798.2219805499</v>
+        <v>272476.7024382091</v>
       </c>
     </row>
     <row r="4">
@@ -2764,28 +2764,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>140.5117988100186</v>
+        <v>208.9972822836753</v>
       </c>
       <c r="AB4" t="n">
-        <v>192.2544420748463</v>
+        <v>285.95930192975</v>
       </c>
       <c r="AC4" t="n">
-        <v>173.9059479540814</v>
+        <v>258.6677475000596</v>
       </c>
       <c r="AD4" t="n">
-        <v>140511.7988100186</v>
+        <v>208997.2822836753</v>
       </c>
       <c r="AE4" t="n">
-        <v>192254.4420748463</v>
+        <v>285959.30192975</v>
       </c>
       <c r="AF4" t="n">
         <v>1.22671993921763e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.78645833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>173905.9479540814</v>
+        <v>258667.7475000597</v>
       </c>
     </row>
     <row r="5">
@@ -2870,28 +2870,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>139.8128559152372</v>
+        <v>198.4766637296221</v>
       </c>
       <c r="AB5" t="n">
-        <v>191.2981175710226</v>
+        <v>271.5645274871681</v>
       </c>
       <c r="AC5" t="n">
-        <v>173.0408937186924</v>
+        <v>245.6467901270804</v>
       </c>
       <c r="AD5" t="n">
-        <v>139812.8559152372</v>
+        <v>198476.6637296221</v>
       </c>
       <c r="AE5" t="n">
-        <v>191298.1175710226</v>
+        <v>271564.5274871681</v>
       </c>
       <c r="AF5" t="n">
         <v>1.255613150782044e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>173040.8937186924</v>
+        <v>245646.7901270804</v>
       </c>
     </row>
     <row r="6">
@@ -2976,28 +2976,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>139.3002005968975</v>
+        <v>197.9640084112824</v>
       </c>
       <c r="AB6" t="n">
-        <v>190.5966799477141</v>
+        <v>270.8630898638596</v>
       </c>
       <c r="AC6" t="n">
-        <v>172.4064003176784</v>
+        <v>245.0122967260664</v>
       </c>
       <c r="AD6" t="n">
-        <v>139300.2005968975</v>
+        <v>197964.0084112824</v>
       </c>
       <c r="AE6" t="n">
-        <v>190596.6799477141</v>
+        <v>270863.0898638596</v>
       </c>
       <c r="AF6" t="n">
         <v>1.271656899047474e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.34375</v>
       </c>
       <c r="AH6" t="n">
-        <v>172406.4003176784</v>
+        <v>245012.2967260664</v>
       </c>
     </row>
     <row r="7">
@@ -3082,28 +3082,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>138.7809221192551</v>
+        <v>197.44472993364</v>
       </c>
       <c r="AB7" t="n">
-        <v>189.8861802256546</v>
+        <v>270.1525901418</v>
       </c>
       <c r="AC7" t="n">
-        <v>171.7637096918994</v>
+        <v>244.3696061002874</v>
       </c>
       <c r="AD7" t="n">
-        <v>138780.9221192551</v>
+        <v>197444.72993364</v>
       </c>
       <c r="AE7" t="n">
-        <v>189886.1802256546</v>
+        <v>270152.5901418001</v>
       </c>
       <c r="AF7" t="n">
         <v>1.288267180872991e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.1875</v>
       </c>
       <c r="AH7" t="n">
-        <v>171763.7096918994</v>
+        <v>244369.6061002874</v>
       </c>
     </row>
     <row r="8">
@@ -3188,28 +3188,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>138.7089300255255</v>
+        <v>197.3727378399104</v>
       </c>
       <c r="AB8" t="n">
-        <v>189.7876774669468</v>
+        <v>270.0540873830923</v>
       </c>
       <c r="AC8" t="n">
-        <v>171.6746078982332</v>
+        <v>244.2805043066211</v>
       </c>
       <c r="AD8" t="n">
-        <v>138708.9300255255</v>
+        <v>197372.7378399104</v>
       </c>
       <c r="AE8" t="n">
-        <v>189787.6774669468</v>
+        <v>270054.0873830923</v>
       </c>
       <c r="AF8" t="n">
         <v>1.287658458643536e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12.1875</v>
       </c>
       <c r="AH8" t="n">
-        <v>171674.6078982332</v>
+        <v>244280.5043066211</v>
       </c>
     </row>
   </sheetData>
@@ -3485,28 +3485,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>160.5063630927629</v>
+        <v>228.2028873358143</v>
       </c>
       <c r="AB2" t="n">
-        <v>219.6118870244041</v>
+        <v>312.2372580535694</v>
       </c>
       <c r="AC2" t="n">
-        <v>198.6524367540773</v>
+        <v>282.4377723727732</v>
       </c>
       <c r="AD2" t="n">
-        <v>160506.3630927629</v>
+        <v>228202.8873358143</v>
       </c>
       <c r="AE2" t="n">
-        <v>219611.8870244041</v>
+        <v>312237.2580535694</v>
       </c>
       <c r="AF2" t="n">
         <v>1.217461318790285e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.11458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>198652.4367540773</v>
+        <v>282437.7723727732</v>
       </c>
     </row>
     <row r="3">
@@ -3591,28 +3591,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>137.8057580431442</v>
+        <v>195.8217331360876</v>
       </c>
       <c r="AB3" t="n">
-        <v>188.5519177155174</v>
+        <v>267.9319343218247</v>
       </c>
       <c r="AC3" t="n">
-        <v>170.5567873230802</v>
+        <v>242.3608865550597</v>
       </c>
       <c r="AD3" t="n">
-        <v>137805.7580431442</v>
+        <v>195821.7331360876</v>
       </c>
       <c r="AE3" t="n">
-        <v>188551.9177155175</v>
+        <v>267931.9343218247</v>
       </c>
       <c r="AF3" t="n">
         <v>1.384693675766711e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.39583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>170556.7873230802</v>
+        <v>242360.8865550597</v>
       </c>
     </row>
     <row r="4">
@@ -3697,28 +3697,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>137.0139124438842</v>
+        <v>195.0298875368277</v>
       </c>
       <c r="AB4" t="n">
-        <v>187.4684796328482</v>
+        <v>266.8484962391554</v>
       </c>
       <c r="AC4" t="n">
-        <v>169.5767510504056</v>
+        <v>241.3808502823851</v>
       </c>
       <c r="AD4" t="n">
-        <v>137013.9124438842</v>
+        <v>195029.8875368276</v>
       </c>
       <c r="AE4" t="n">
-        <v>187468.4796328482</v>
+        <v>266848.4962391554</v>
       </c>
       <c r="AF4" t="n">
         <v>1.426457251488613e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.03125</v>
       </c>
       <c r="AH4" t="n">
-        <v>169576.7510504056</v>
+        <v>241380.8502823851</v>
       </c>
     </row>
     <row r="5">
@@ -3803,28 +3803,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>126.5303157138696</v>
+        <v>184.6136106145175</v>
       </c>
       <c r="AB5" t="n">
-        <v>173.1243600832035</v>
+        <v>252.5964866203522</v>
       </c>
       <c r="AC5" t="n">
-        <v>156.6016141384762</v>
+        <v>228.4890324587748</v>
       </c>
       <c r="AD5" t="n">
-        <v>126530.3157138696</v>
+        <v>184613.6106145174</v>
       </c>
       <c r="AE5" t="n">
-        <v>173124.3600832035</v>
+        <v>252596.4866203522</v>
       </c>
       <c r="AF5" t="n">
         <v>1.459252176810738e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.77083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>156601.6141384762</v>
+        <v>228489.0324587748</v>
       </c>
     </row>
     <row r="6">
@@ -3909,28 +3909,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>126.0136416394277</v>
+        <v>184.0969365400755</v>
       </c>
       <c r="AB6" t="n">
-        <v>172.417423820501</v>
+        <v>251.8895503576497</v>
       </c>
       <c r="AC6" t="n">
-        <v>155.9621468804945</v>
+        <v>227.8495652007932</v>
       </c>
       <c r="AD6" t="n">
-        <v>126013.6416394277</v>
+        <v>184096.9365400755</v>
       </c>
       <c r="AE6" t="n">
-        <v>172417.423820501</v>
+        <v>251889.5503576497</v>
       </c>
       <c r="AF6" t="n">
         <v>1.476952072158532e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.61458333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>155962.1468804945</v>
+        <v>227849.5652007932</v>
       </c>
     </row>
   </sheetData>
@@ -4206,28 +4206,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>120.1754104542893</v>
+        <v>166.9196647639976</v>
       </c>
       <c r="AB2" t="n">
-        <v>164.4292983484169</v>
+        <v>228.3868493058844</v>
       </c>
       <c r="AC2" t="n">
-        <v>148.7363968920591</v>
+        <v>206.5899289511528</v>
       </c>
       <c r="AD2" t="n">
-        <v>120175.4104542893</v>
+        <v>166919.6647639977</v>
       </c>
       <c r="AE2" t="n">
-        <v>164429.2983484169</v>
+        <v>228386.8493058844</v>
       </c>
       <c r="AF2" t="n">
         <v>2.154112633081874e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.11979166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>148736.3968920591</v>
+        <v>206589.9289511528</v>
       </c>
     </row>
     <row r="3">
@@ -4312,28 +4312,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.0615254332695</v>
+        <v>166.160250452847</v>
       </c>
       <c r="AB3" t="n">
-        <v>150.591034669548</v>
+        <v>227.3477851423737</v>
       </c>
       <c r="AC3" t="n">
-        <v>136.218837676572</v>
+        <v>205.6500316130715</v>
       </c>
       <c r="AD3" t="n">
-        <v>110061.5254332694</v>
+        <v>166160.250452847</v>
       </c>
       <c r="AE3" t="n">
-        <v>150591.034669548</v>
+        <v>227347.7851423736</v>
       </c>
       <c r="AF3" t="n">
         <v>2.228568853951436e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.75520833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>136218.837676572</v>
+        <v>205650.0316130715</v>
       </c>
     </row>
   </sheetData>
@@ -4609,28 +4609,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.5899946222988</v>
+        <v>190.4180955854669</v>
       </c>
       <c r="AB2" t="n">
-        <v>182.7837242167639</v>
+        <v>260.5384390334053</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.3391021161353</v>
+        <v>235.6730160801289</v>
       </c>
       <c r="AD2" t="n">
-        <v>133589.9946222988</v>
+        <v>190418.0955854669</v>
       </c>
       <c r="AE2" t="n">
-        <v>182783.7242167639</v>
+        <v>260538.4390334053</v>
       </c>
       <c r="AF2" t="n">
         <v>1.713114318304871e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>165339.1021161353</v>
+        <v>235673.0160801289</v>
       </c>
     </row>
     <row r="3">
@@ -4715,28 +4715,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>122.1601899176353</v>
+        <v>169.5398861711055</v>
       </c>
       <c r="AB3" t="n">
-        <v>167.1449611724555</v>
+        <v>231.9719518310976</v>
       </c>
       <c r="AC3" t="n">
-        <v>151.1928806676291</v>
+        <v>209.8328743230838</v>
       </c>
       <c r="AD3" t="n">
-        <v>122160.1899176353</v>
+        <v>169539.8861711055</v>
       </c>
       <c r="AE3" t="n">
-        <v>167144.9611724555</v>
+        <v>231971.9518310976</v>
       </c>
       <c r="AF3" t="n">
         <v>1.874228195090259e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.06770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>151192.8806676291</v>
+        <v>209832.8743230838</v>
       </c>
     </row>
     <row r="4">
@@ -4821,28 +4821,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>121.9866464058967</v>
+        <v>169.3663426593669</v>
       </c>
       <c r="AB4" t="n">
-        <v>166.9075112834956</v>
+        <v>231.7345019421377</v>
       </c>
       <c r="AC4" t="n">
-        <v>150.9780926628084</v>
+        <v>209.6180863182631</v>
       </c>
       <c r="AD4" t="n">
-        <v>121986.6464058968</v>
+        <v>169366.3426593669</v>
       </c>
       <c r="AE4" t="n">
-        <v>166907.5112834956</v>
+        <v>231734.5019421377</v>
       </c>
       <c r="AF4" t="n">
         <v>1.885555269051868e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.015625</v>
       </c>
       <c r="AH4" t="n">
-        <v>150978.0926628084</v>
+        <v>209618.0863182631</v>
       </c>
     </row>
   </sheetData>
@@ -5118,28 +5118,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.2918903881256</v>
+        <v>163.7651841164072</v>
       </c>
       <c r="AB2" t="n">
-        <v>148.1697419299952</v>
+        <v>224.0707497179887</v>
       </c>
       <c r="AC2" t="n">
-        <v>134.0286297177757</v>
+        <v>202.6857518502408</v>
       </c>
       <c r="AD2" t="n">
-        <v>108291.8903881256</v>
+        <v>163765.1841164072</v>
       </c>
       <c r="AE2" t="n">
-        <v>148169.7419299952</v>
+        <v>224070.7497179887</v>
       </c>
       <c r="AF2" t="n">
         <v>2.560449701958465e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.72916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>134028.6297177757</v>
+        <v>202685.7518502408</v>
       </c>
     </row>
   </sheetData>
@@ -5415,28 +5415,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>161.8168067905216</v>
+        <v>229.7119878746036</v>
       </c>
       <c r="AB2" t="n">
-        <v>221.4048939043724</v>
+        <v>314.3020759875568</v>
       </c>
       <c r="AC2" t="n">
-        <v>200.2743215739229</v>
+        <v>284.3055269811318</v>
       </c>
       <c r="AD2" t="n">
-        <v>161816.8067905216</v>
+        <v>229711.9878746036</v>
       </c>
       <c r="AE2" t="n">
-        <v>221404.8939043724</v>
+        <v>314302.0759875568</v>
       </c>
       <c r="AF2" t="n">
         <v>1.158757123534767e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>200274.3215739229</v>
+        <v>284305.5269811318</v>
       </c>
     </row>
     <row r="3">
@@ -5521,28 +5521,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>138.9579677499793</v>
+        <v>206.8863032229849</v>
       </c>
       <c r="AB3" t="n">
-        <v>190.1284218683132</v>
+        <v>283.0709672490914</v>
       </c>
       <c r="AC3" t="n">
-        <v>171.9828321321711</v>
+        <v>256.0550714275191</v>
       </c>
       <c r="AD3" t="n">
-        <v>138957.9677499793</v>
+        <v>206886.3032229849</v>
       </c>
       <c r="AE3" t="n">
-        <v>190128.4218683132</v>
+        <v>283070.9672490914</v>
       </c>
       <c r="AF3" t="n">
         <v>1.31474205057341e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.734375</v>
       </c>
       <c r="AH3" t="n">
-        <v>171982.8321321711</v>
+        <v>256055.0714275191</v>
       </c>
     </row>
     <row r="4">
@@ -5627,28 +5627,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>137.8965352355626</v>
+        <v>196.082787620818</v>
       </c>
       <c r="AB4" t="n">
-        <v>188.6761230749913</v>
+        <v>268.2891205847436</v>
       </c>
       <c r="AC4" t="n">
-        <v>170.6691386973692</v>
+        <v>242.6839834623598</v>
       </c>
       <c r="AD4" t="n">
-        <v>137896.5352355626</v>
+        <v>196082.787620818</v>
       </c>
       <c r="AE4" t="n">
-        <v>188676.1230749913</v>
+        <v>268289.1205847436</v>
       </c>
       <c r="AF4" t="n">
         <v>1.373592752242967e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.1875</v>
       </c>
       <c r="AH4" t="n">
-        <v>170669.1386973692</v>
+        <v>242683.9834623598</v>
       </c>
     </row>
     <row r="5">
@@ -5733,28 +5733,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>127.284095452107</v>
+        <v>195.1782655063319</v>
       </c>
       <c r="AB5" t="n">
-        <v>174.1557147754745</v>
+        <v>267.0515135230049</v>
       </c>
       <c r="AC5" t="n">
-        <v>157.5345377864326</v>
+        <v>241.5644918816007</v>
       </c>
       <c r="AD5" t="n">
-        <v>127284.095452107</v>
+        <v>195178.2655063319</v>
       </c>
       <c r="AE5" t="n">
-        <v>174155.7147754745</v>
+        <v>267051.5135230049</v>
       </c>
       <c r="AF5" t="n">
         <v>1.40670874030109e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.90104166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>157534.5377864326</v>
+        <v>241564.4918816007</v>
       </c>
     </row>
     <row r="6">
@@ -5839,28 +5839,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>126.7469229049607</v>
+        <v>185.0004950979205</v>
       </c>
       <c r="AB6" t="n">
-        <v>173.420731598089</v>
+        <v>253.1258390386828</v>
       </c>
       <c r="AC6" t="n">
-        <v>156.8697003719413</v>
+        <v>228.9678642252509</v>
       </c>
       <c r="AD6" t="n">
-        <v>126746.9229049607</v>
+        <v>185000.4950979205</v>
       </c>
       <c r="AE6" t="n">
-        <v>173420.731598089</v>
+        <v>253125.8390386828</v>
       </c>
       <c r="AF6" t="n">
         <v>1.423736510297553e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.77083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>156869.7003719413</v>
+        <v>228967.8642252509</v>
       </c>
     </row>
   </sheetData>
@@ -6136,28 +6136,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.2122078479235</v>
+        <v>162.3151526079129</v>
       </c>
       <c r="AB2" t="n">
-        <v>146.6924726462595</v>
+        <v>222.0867526371927</v>
       </c>
       <c r="AC2" t="n">
-        <v>132.6923489411187</v>
+        <v>200.8911046662778</v>
       </c>
       <c r="AD2" t="n">
-        <v>107212.2078479235</v>
+        <v>162315.152607913</v>
       </c>
       <c r="AE2" t="n">
-        <v>146692.4726462595</v>
+        <v>222086.7526371927</v>
       </c>
       <c r="AF2" t="n">
         <v>2.802929943056782e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.72916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>132692.3489411187</v>
+        <v>200891.1046662778</v>
       </c>
     </row>
   </sheetData>
@@ -6433,28 +6433,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.8399260514132</v>
+        <v>204.3374343640471</v>
       </c>
       <c r="AB2" t="n">
-        <v>200.9128649437886</v>
+        <v>279.5834924281365</v>
       </c>
       <c r="AC2" t="n">
-        <v>181.7380230965875</v>
+        <v>252.9004363087734</v>
       </c>
       <c r="AD2" t="n">
-        <v>146839.9260514132</v>
+        <v>204337.4343640471</v>
       </c>
       <c r="AE2" t="n">
-        <v>200912.8649437886</v>
+        <v>279583.4924281365</v>
       </c>
       <c r="AF2" t="n">
         <v>1.43326848045157e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.02083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>181738.0230965875</v>
+        <v>252900.4363087734</v>
       </c>
     </row>
     <row r="3">
@@ -6539,28 +6539,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>125.3047439918931</v>
+        <v>182.8354066934506</v>
       </c>
       <c r="AB3" t="n">
-        <v>171.4474787847877</v>
+        <v>250.1634695667293</v>
       </c>
       <c r="AC3" t="n">
-        <v>155.084772037663</v>
+        <v>226.2882191379881</v>
       </c>
       <c r="AD3" t="n">
-        <v>125304.7439918931</v>
+        <v>182835.4066934506</v>
       </c>
       <c r="AE3" t="n">
-        <v>171447.4787847877</v>
+        <v>250163.4695667293</v>
       </c>
       <c r="AF3" t="n">
         <v>1.581386801288319e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>155084.772037663</v>
+        <v>226288.2191379881</v>
       </c>
     </row>
     <row r="4">
@@ -6645,28 +6645,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>124.4410345615293</v>
+        <v>181.8702120366016</v>
       </c>
       <c r="AB4" t="n">
-        <v>170.2657134379938</v>
+        <v>248.8428476558462</v>
       </c>
       <c r="AC4" t="n">
-        <v>154.0157927169486</v>
+        <v>225.0936355287748</v>
       </c>
       <c r="AD4" t="n">
-        <v>124441.0345615293</v>
+        <v>181870.2120366016</v>
       </c>
       <c r="AE4" t="n">
-        <v>170265.7134379938</v>
+        <v>248842.8476558462</v>
       </c>
       <c r="AF4" t="n">
         <v>1.633109179686628e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.43229166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>154015.7927169486</v>
+        <v>225093.6355287748</v>
       </c>
     </row>
     <row r="5">
@@ -6751,28 +6751,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>124.1861610085176</v>
+        <v>181.6153384835899</v>
       </c>
       <c r="AB5" t="n">
-        <v>169.9169841985358</v>
+        <v>248.4941184163882</v>
       </c>
       <c r="AC5" t="n">
-        <v>153.7003457066598</v>
+        <v>224.778188518486</v>
       </c>
       <c r="AD5" t="n">
-        <v>124186.1610085176</v>
+        <v>181615.3384835899</v>
       </c>
       <c r="AE5" t="n">
-        <v>169916.9841985358</v>
+        <v>248494.1184163882</v>
       </c>
       <c r="AF5" t="n">
         <v>1.64801709937193e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.328125</v>
       </c>
       <c r="AH5" t="n">
-        <v>153700.3457066598</v>
+        <v>224778.188518486</v>
       </c>
     </row>
   </sheetData>
@@ -7048,28 +7048,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>149.4174218414315</v>
+        <v>216.9750548754403</v>
       </c>
       <c r="AB2" t="n">
-        <v>204.4395083947788</v>
+        <v>296.8748423442842</v>
       </c>
       <c r="AC2" t="n">
-        <v>184.9280886462914</v>
+        <v>268.5415240574915</v>
       </c>
       <c r="AD2" t="n">
-        <v>149417.4218414315</v>
+        <v>216975.0548754403</v>
       </c>
       <c r="AE2" t="n">
-        <v>204439.5083947788</v>
+        <v>296874.8423442842</v>
       </c>
       <c r="AF2" t="n">
         <v>1.283062023326662e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.75</v>
       </c>
       <c r="AH2" t="n">
-        <v>184928.0886462914</v>
+        <v>268541.5240574915</v>
       </c>
     </row>
     <row r="3">
@@ -7154,28 +7154,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>137.0129906993436</v>
+        <v>194.8522134922181</v>
       </c>
       <c r="AB3" t="n">
-        <v>187.4672184613033</v>
+        <v>266.6053947728951</v>
       </c>
       <c r="AC3" t="n">
-        <v>169.5756102433029</v>
+        <v>241.1609500788696</v>
       </c>
       <c r="AD3" t="n">
-        <v>137012.9906993436</v>
+        <v>194852.2134922181</v>
       </c>
       <c r="AE3" t="n">
-        <v>187467.2184613033</v>
+        <v>266605.3947728951</v>
       </c>
       <c r="AF3" t="n">
         <v>1.436375897291372e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.265625</v>
       </c>
       <c r="AH3" t="n">
-        <v>169575.6102433029</v>
+        <v>241160.9500788696</v>
       </c>
     </row>
     <row r="4">
@@ -7260,28 +7260,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>126.1318774502873</v>
+        <v>184.0384200508662</v>
       </c>
       <c r="AB4" t="n">
-        <v>172.5791992731149</v>
+        <v>251.8094855155481</v>
       </c>
       <c r="AC4" t="n">
-        <v>156.1084827109643</v>
+        <v>227.7771416348501</v>
       </c>
       <c r="AD4" t="n">
-        <v>126131.8774502873</v>
+        <v>184038.4200508662</v>
       </c>
       <c r="AE4" t="n">
-        <v>172579.1992731149</v>
+        <v>251809.4855155481</v>
       </c>
       <c r="AF4" t="n">
         <v>1.501055928177724e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.74479166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>156108.4827109643</v>
+        <v>227777.1416348501</v>
       </c>
     </row>
     <row r="5">
@@ -7366,28 +7366,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>125.6637313028995</v>
+        <v>183.5702739034785</v>
       </c>
       <c r="AB5" t="n">
-        <v>171.9386610611089</v>
+        <v>251.1689473035421</v>
       </c>
       <c r="AC5" t="n">
-        <v>155.5290765669109</v>
+        <v>227.1977354907967</v>
       </c>
       <c r="AD5" t="n">
-        <v>125663.7313028995</v>
+        <v>183570.2739034785</v>
       </c>
       <c r="AE5" t="n">
-        <v>171938.6610611089</v>
+        <v>251168.9473035421</v>
       </c>
       <c r="AF5" t="n">
         <v>1.516379870196006e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.61458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>155529.0765669109</v>
+        <v>227197.7354907967</v>
       </c>
     </row>
     <row r="6">
@@ -7472,28 +7472,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>125.6127468999411</v>
+        <v>183.51928950052</v>
       </c>
       <c r="AB6" t="n">
-        <v>171.8689019517081</v>
+        <v>251.0991881941414</v>
       </c>
       <c r="AC6" t="n">
-        <v>155.4659751690038</v>
+        <v>227.1346340928896</v>
       </c>
       <c r="AD6" t="n">
-        <v>125612.7468999411</v>
+        <v>183519.28950052</v>
       </c>
       <c r="AE6" t="n">
-        <v>171868.9019517081</v>
+        <v>251099.1881941414</v>
       </c>
       <c r="AF6" t="n">
         <v>1.516000832760925e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.61458333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>155465.9751690038</v>
+        <v>227134.6340928896</v>
       </c>
     </row>
   </sheetData>
@@ -7769,28 +7769,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>174.4306233509013</v>
+        <v>252.4318179385846</v>
       </c>
       <c r="AB2" t="n">
-        <v>238.6636742045874</v>
+        <v>345.3883498092417</v>
       </c>
       <c r="AC2" t="n">
-        <v>215.8859481051412</v>
+        <v>312.4249704591442</v>
       </c>
       <c r="AD2" t="n">
-        <v>174430.6233509013</v>
+        <v>252431.8179385846</v>
       </c>
       <c r="AE2" t="n">
-        <v>238663.6742045874</v>
+        <v>345388.3498092417</v>
       </c>
       <c r="AF2" t="n">
         <v>1.052135959639037e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>215885.9481051412</v>
+        <v>312424.9704591442</v>
       </c>
     </row>
     <row r="3">
@@ -7875,28 +7875,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>150.5804601924663</v>
+        <v>209.124315664169</v>
       </c>
       <c r="AB3" t="n">
-        <v>206.0308287762945</v>
+        <v>286.1331146052585</v>
       </c>
       <c r="AC3" t="n">
-        <v>186.367535644028</v>
+        <v>258.8249717377654</v>
       </c>
       <c r="AD3" t="n">
-        <v>150580.4601924663</v>
+        <v>209124.315664169</v>
       </c>
       <c r="AE3" t="n">
-        <v>206030.8287762945</v>
+        <v>286133.1146052585</v>
       </c>
       <c r="AF3" t="n">
         <v>1.223114129118323e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.09895833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>186367.535644028</v>
+        <v>258824.9717377654</v>
       </c>
     </row>
     <row r="4">
@@ -7981,28 +7981,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>139.6994204004716</v>
+        <v>208.0050998190881</v>
       </c>
       <c r="AB4" t="n">
-        <v>191.1429100952985</v>
+        <v>284.6017541097013</v>
       </c>
       <c r="AC4" t="n">
-        <v>172.9004990266164</v>
+        <v>257.4397621386258</v>
       </c>
       <c r="AD4" t="n">
-        <v>139699.4204004715</v>
+        <v>208005.0998190882</v>
       </c>
       <c r="AE4" t="n">
-        <v>191142.9100952985</v>
+        <v>284601.7541097014</v>
       </c>
       <c r="AF4" t="n">
         <v>1.266910825906633e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.65625</v>
       </c>
       <c r="AH4" t="n">
-        <v>172900.4990266164</v>
+        <v>257439.7621386258</v>
       </c>
     </row>
     <row r="5">
@@ -8087,28 +8087,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>139.0182171028006</v>
+        <v>197.5279071557225</v>
       </c>
       <c r="AB5" t="n">
-        <v>190.2108576908571</v>
+        <v>270.2663968865734</v>
       </c>
       <c r="AC5" t="n">
-        <v>172.0574003955108</v>
+        <v>244.4725512890683</v>
       </c>
       <c r="AD5" t="n">
-        <v>139018.2171028006</v>
+        <v>197527.9071557225</v>
       </c>
       <c r="AE5" t="n">
-        <v>190210.8576908571</v>
+        <v>270266.3968865733</v>
       </c>
       <c r="AF5" t="n">
         <v>1.297404845193352e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.34375</v>
       </c>
       <c r="AH5" t="n">
-        <v>172057.4003955108</v>
+        <v>244472.5512890683</v>
       </c>
     </row>
     <row r="6">
@@ -8193,28 +8193,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>138.3699931861896</v>
+        <v>196.8796832391115</v>
       </c>
       <c r="AB6" t="n">
-        <v>189.3239291305295</v>
+        <v>269.3794683262457</v>
       </c>
       <c r="AC6" t="n">
-        <v>171.2551190521685</v>
+        <v>243.6702699457261</v>
       </c>
       <c r="AD6" t="n">
-        <v>138369.9931861896</v>
+        <v>196879.6832391115</v>
       </c>
       <c r="AE6" t="n">
-        <v>189323.9291305295</v>
+        <v>269379.4683262457</v>
       </c>
       <c r="AF6" t="n">
         <v>1.314965363967423e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.1875</v>
       </c>
       <c r="AH6" t="n">
-        <v>171255.1190521685</v>
+        <v>243670.2699457261</v>
       </c>
     </row>
     <row r="7">
@@ -8299,28 +8299,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>138.0535638970574</v>
+        <v>196.5632539499793</v>
       </c>
       <c r="AB7" t="n">
-        <v>188.890976617264</v>
+        <v>268.9465158129802</v>
       </c>
       <c r="AC7" t="n">
-        <v>170.8634869191163</v>
+        <v>243.2786378126738</v>
       </c>
       <c r="AD7" t="n">
-        <v>138053.5638970573</v>
+        <v>196563.2539499793</v>
       </c>
       <c r="AE7" t="n">
-        <v>188890.976617264</v>
+        <v>268946.5158129802</v>
       </c>
       <c r="AF7" t="n">
         <v>1.33044618570378e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.03125</v>
       </c>
       <c r="AH7" t="n">
-        <v>170863.4869191163</v>
+        <v>243278.6378126738</v>
       </c>
     </row>
   </sheetData>
@@ -8596,28 +8596,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.8567238480242</v>
+        <v>191.9078559755553</v>
       </c>
       <c r="AB2" t="n">
-        <v>184.5169190275498</v>
+        <v>262.5767949227131</v>
       </c>
       <c r="AC2" t="n">
-        <v>166.9068832467346</v>
+        <v>237.5168341442123</v>
       </c>
       <c r="AD2" t="n">
-        <v>134856.7238480242</v>
+        <v>191907.8559755553</v>
       </c>
       <c r="AE2" t="n">
-        <v>184516.9190275498</v>
+        <v>262576.7949227131</v>
       </c>
       <c r="AF2" t="n">
         <v>1.604903974910112e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.44791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>166906.8832467346</v>
+        <v>237516.8341442123</v>
       </c>
     </row>
     <row r="3">
@@ -8702,28 +8702,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>123.2939349245535</v>
+        <v>180.3109016333039</v>
       </c>
       <c r="AB3" t="n">
-        <v>168.6962011082198</v>
+        <v>246.7093303701354</v>
       </c>
       <c r="AC3" t="n">
-        <v>152.5960724411034</v>
+        <v>223.1637381384012</v>
       </c>
       <c r="AD3" t="n">
-        <v>123293.9349245535</v>
+        <v>180310.9016333039</v>
       </c>
       <c r="AE3" t="n">
-        <v>168696.2011082198</v>
+        <v>246709.3303701354</v>
       </c>
       <c r="AF3" t="n">
         <v>1.758069752938038e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.35416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>152596.0724411034</v>
+        <v>223163.7381384012</v>
       </c>
     </row>
     <row r="4">
@@ -8808,28 +8808,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>122.7639665153049</v>
+        <v>170.329522072411</v>
       </c>
       <c r="AB4" t="n">
-        <v>167.9710749501302</v>
+        <v>233.0523665075405</v>
       </c>
       <c r="AC4" t="n">
-        <v>151.9401513058207</v>
+        <v>210.8101757391788</v>
       </c>
       <c r="AD4" t="n">
-        <v>122763.9665153049</v>
+        <v>170329.5220724109</v>
       </c>
       <c r="AE4" t="n">
-        <v>167971.0749501302</v>
+        <v>233052.3665075405</v>
       </c>
       <c r="AF4" t="n">
         <v>1.792533587106682e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.14583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>151940.1513058207</v>
+        <v>210810.1757391788</v>
       </c>
     </row>
   </sheetData>
@@ -9105,28 +9105,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.3669301904992</v>
+        <v>177.6710451758941</v>
       </c>
       <c r="AB2" t="n">
-        <v>166.0595882176392</v>
+        <v>243.0973623028617</v>
       </c>
       <c r="AC2" t="n">
-        <v>150.2110941842895</v>
+        <v>219.8964912340379</v>
       </c>
       <c r="AD2" t="n">
-        <v>121366.9301904992</v>
+        <v>177671.045175894</v>
       </c>
       <c r="AE2" t="n">
-        <v>166059.5882176392</v>
+        <v>243097.3623028617</v>
       </c>
       <c r="AF2" t="n">
         <v>1.996377994234184e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.38020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>150211.0941842895</v>
+        <v>219896.4912340379</v>
       </c>
     </row>
     <row r="3">
@@ -9211,28 +9211,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.8020039555116</v>
+        <v>167.173438748611</v>
       </c>
       <c r="AB3" t="n">
-        <v>151.6041900512861</v>
+        <v>228.73407406735</v>
       </c>
       <c r="AC3" t="n">
-        <v>137.1352989306498</v>
+        <v>206.9040150687173</v>
       </c>
       <c r="AD3" t="n">
-        <v>110802.0039555116</v>
+        <v>167173.438748611</v>
       </c>
       <c r="AE3" t="n">
-        <v>151604.1900512861</v>
+        <v>228734.07406735</v>
       </c>
       <c r="AF3" t="n">
         <v>2.103509820750642e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.80729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>137135.2989306498</v>
+        <v>206904.0150687173</v>
       </c>
     </row>
   </sheetData>
@@ -16169,28 +16169,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.403094501782</v>
+        <v>165.2047335889143</v>
       </c>
       <c r="AB2" t="n">
-        <v>149.6901404211648</v>
+        <v>226.0404048147126</v>
       </c>
       <c r="AC2" t="n">
-        <v>135.4039235108411</v>
+        <v>204.4674258289622</v>
       </c>
       <c r="AD2" t="n">
-        <v>109403.094501782</v>
+        <v>165204.7335889143</v>
       </c>
       <c r="AE2" t="n">
-        <v>149690.1404211647</v>
+        <v>226040.4048147126</v>
       </c>
       <c r="AF2" t="n">
         <v>2.351772306072841e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.83333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>135403.9235108411</v>
+        <v>204467.4258289622</v>
       </c>
     </row>
     <row r="3">
@@ -16275,28 +16275,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>109.1861982650137</v>
+        <v>164.987837352146</v>
       </c>
       <c r="AB3" t="n">
-        <v>149.3933734212318</v>
+        <v>225.7436378147796</v>
       </c>
       <c r="AC3" t="n">
-        <v>135.1354795368666</v>
+        <v>204.1989818549877</v>
       </c>
       <c r="AD3" t="n">
-        <v>109186.1982650137</v>
+        <v>164987.837352146</v>
       </c>
       <c r="AE3" t="n">
-        <v>149393.3734212318</v>
+        <v>225743.6378147796</v>
       </c>
       <c r="AF3" t="n">
         <v>2.385663467021011e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>135135.4795368666</v>
+        <v>204198.9818549877</v>
       </c>
     </row>
   </sheetData>
@@ -16572,28 +16572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>106.0188602173972</v>
+        <v>160.6909875117493</v>
       </c>
       <c r="AB2" t="n">
-        <v>145.0596817713923</v>
+        <v>219.8644982995157</v>
       </c>
       <c r="AC2" t="n">
-        <v>131.215389335712</v>
+        <v>198.8809391636345</v>
       </c>
       <c r="AD2" t="n">
-        <v>106018.8602173972</v>
+        <v>160690.9875117493</v>
       </c>
       <c r="AE2" t="n">
-        <v>145059.6817713923</v>
+        <v>219864.4982995157</v>
       </c>
       <c r="AF2" t="n">
         <v>3.105667660638744e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>131215.389335712</v>
+        <v>198880.9391636345</v>
       </c>
     </row>
   </sheetData>
@@ -16869,28 +16869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>148.1270803127366</v>
+        <v>215.3686414317708</v>
       </c>
       <c r="AB2" t="n">
-        <v>202.6740061893686</v>
+        <v>294.6768766006974</v>
       </c>
       <c r="AC2" t="n">
-        <v>183.3310834934672</v>
+        <v>266.5533290796076</v>
       </c>
       <c r="AD2" t="n">
-        <v>148127.0803127366</v>
+        <v>215368.6414317708</v>
       </c>
       <c r="AE2" t="n">
-        <v>202674.0061893686</v>
+        <v>294676.8766006974</v>
       </c>
       <c r="AF2" t="n">
         <v>1.354068195488268e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.38541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>183331.0834934672</v>
+        <v>266553.3290796076</v>
       </c>
     </row>
     <row r="3">
@@ -16975,28 +16975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>126.1860187138008</v>
+        <v>193.4607342217586</v>
       </c>
       <c r="AB3" t="n">
-        <v>172.653277738398</v>
+        <v>264.7015114473205</v>
       </c>
       <c r="AC3" t="n">
-        <v>156.1754912314906</v>
+        <v>239.4387707057702</v>
       </c>
       <c r="AD3" t="n">
-        <v>126186.0187138008</v>
+        <v>193460.7342217586</v>
       </c>
       <c r="AE3" t="n">
-        <v>172653.277738398</v>
+        <v>264701.5114473205</v>
       </c>
       <c r="AF3" t="n">
         <v>1.51339981181567e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.97916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>156175.4912314906</v>
+        <v>239438.7707057702</v>
       </c>
     </row>
     <row r="4">
@@ -17081,28 +17081,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>125.2427105098939</v>
+        <v>182.9653216631963</v>
       </c>
       <c r="AB4" t="n">
-        <v>171.3626018379924</v>
+        <v>250.3412249597793</v>
       </c>
       <c r="AC4" t="n">
-        <v>155.0079956275443</v>
+        <v>226.4490098058067</v>
       </c>
       <c r="AD4" t="n">
-        <v>125242.7105098939</v>
+        <v>182965.3216631963</v>
       </c>
       <c r="AE4" t="n">
-        <v>171362.6018379924</v>
+        <v>250341.2249597793</v>
       </c>
       <c r="AF4" t="n">
         <v>1.567656354179977e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.5625</v>
       </c>
       <c r="AH4" t="n">
-        <v>155007.9956275443</v>
+        <v>226449.0098058067</v>
       </c>
     </row>
     <row r="5">
@@ -17187,28 +17187,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>124.9270948272706</v>
+        <v>182.5482207540878</v>
       </c>
       <c r="AB5" t="n">
-        <v>170.9307625370462</v>
+        <v>249.7705290947439</v>
       </c>
       <c r="AC5" t="n">
-        <v>154.61737046339</v>
+        <v>225.9327803531534</v>
       </c>
       <c r="AD5" t="n">
-        <v>124927.0948272706</v>
+        <v>182548.2207540878</v>
       </c>
       <c r="AE5" t="n">
-        <v>170930.7625370462</v>
+        <v>249770.5290947439</v>
       </c>
       <c r="AF5" t="n">
         <v>1.578722016360486e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.484375</v>
       </c>
       <c r="AH5" t="n">
-        <v>154617.37046339</v>
+        <v>225932.7803531534</v>
       </c>
     </row>
   </sheetData>
@@ -17484,28 +17484,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>163.2829173963902</v>
+        <v>241.1393823212877</v>
       </c>
       <c r="AB2" t="n">
-        <v>223.4108911155558</v>
+        <v>329.9375412105647</v>
       </c>
       <c r="AC2" t="n">
-        <v>202.0888692267064</v>
+        <v>298.448765347774</v>
       </c>
       <c r="AD2" t="n">
-        <v>163282.9173963902</v>
+        <v>241139.3823212877</v>
       </c>
       <c r="AE2" t="n">
-        <v>223410.8911155558</v>
+        <v>329937.5412105647</v>
       </c>
       <c r="AF2" t="n">
         <v>1.101544963871122e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.86979166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>202088.8692267064</v>
+        <v>298448.765347774</v>
       </c>
     </row>
     <row r="3">
@@ -17590,28 +17590,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>139.8569129406882</v>
+        <v>207.977049072626</v>
       </c>
       <c r="AB3" t="n">
-        <v>191.3583983369034</v>
+        <v>284.5633738408802</v>
       </c>
       <c r="AC3" t="n">
-        <v>173.0954213728823</v>
+        <v>257.4050448287939</v>
       </c>
       <c r="AD3" t="n">
-        <v>139856.9129406882</v>
+        <v>207977.049072626</v>
       </c>
       <c r="AE3" t="n">
-        <v>191358.3983369034</v>
+        <v>284563.3738408802</v>
       </c>
       <c r="AF3" t="n">
         <v>1.267224772155588e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.91666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>173095.4213728823</v>
+        <v>257405.0448287939</v>
       </c>
     </row>
     <row r="4">
@@ -17696,28 +17696,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>138.6086567015518</v>
+        <v>196.9593096516061</v>
       </c>
       <c r="AB4" t="n">
-        <v>189.6504790813391</v>
+        <v>269.4884166966901</v>
       </c>
       <c r="AC4" t="n">
-        <v>171.5505035339887</v>
+        <v>243.7688204366052</v>
       </c>
       <c r="AD4" t="n">
-        <v>138608.6567015518</v>
+        <v>196959.3096516061</v>
       </c>
       <c r="AE4" t="n">
-        <v>189650.4790813391</v>
+        <v>269488.4166966901</v>
       </c>
       <c r="AF4" t="n">
         <v>1.328658236329693e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.31770833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>171550.5035339887</v>
+        <v>243768.8204366052</v>
       </c>
     </row>
     <row r="5">
@@ -17802,28 +17802,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>138.154724479461</v>
+        <v>196.5053774295153</v>
       </c>
       <c r="AB5" t="n">
-        <v>189.0293889889985</v>
+        <v>268.8673266043496</v>
       </c>
       <c r="AC5" t="n">
-        <v>170.9886894083555</v>
+        <v>243.207006310972</v>
       </c>
       <c r="AD5" t="n">
-        <v>138154.724479461</v>
+        <v>196505.3774295153</v>
       </c>
       <c r="AE5" t="n">
-        <v>189029.3889889985</v>
+        <v>268867.3266043495</v>
       </c>
       <c r="AF5" t="n">
         <v>1.342681844181904e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.1875</v>
       </c>
       <c r="AH5" t="n">
-        <v>170988.6894083555</v>
+        <v>243207.006310972</v>
       </c>
     </row>
     <row r="6">
@@ -17908,28 +17908,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>127.4531249767911</v>
+        <v>195.539095689948</v>
       </c>
       <c r="AB6" t="n">
-        <v>174.3869884282035</v>
+        <v>267.5452172989325</v>
       </c>
       <c r="AC6" t="n">
-        <v>157.7437390063399</v>
+        <v>242.0110772620716</v>
       </c>
       <c r="AD6" t="n">
-        <v>127453.1249767911</v>
+        <v>195539.095689948</v>
       </c>
       <c r="AE6" t="n">
-        <v>174386.9884282035</v>
+        <v>267545.2172989325</v>
       </c>
       <c r="AF6" t="n">
         <v>1.376149844625612e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.90104166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>157743.7390063399</v>
+        <v>242011.0772620716</v>
       </c>
     </row>
     <row r="7">
@@ -18014,28 +18014,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>127.5511993164876</v>
+        <v>195.6371700296445</v>
       </c>
       <c r="AB7" t="n">
-        <v>174.5211780665107</v>
+        <v>267.6794069372398</v>
       </c>
       <c r="AC7" t="n">
-        <v>157.8651217739034</v>
+        <v>242.132460029635</v>
       </c>
       <c r="AD7" t="n">
-        <v>127551.1993164876</v>
+        <v>195637.1700296445</v>
       </c>
       <c r="AE7" t="n">
-        <v>174521.1780665106</v>
+        <v>267679.4069372397</v>
       </c>
       <c r="AF7" t="n">
         <v>1.373477183936289e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.92708333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>157865.1217739034</v>
+        <v>242132.4600296351</v>
       </c>
     </row>
   </sheetData>
@@ -18311,28 +18311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.7714954746427</v>
+        <v>167.8480263945797</v>
       </c>
       <c r="AB2" t="n">
-        <v>155.6671793524792</v>
+        <v>229.6570746452706</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.8105222353797</v>
+        <v>207.7389257669208</v>
       </c>
       <c r="AD2" t="n">
-        <v>113771.4954746427</v>
+        <v>167848.0263945797</v>
       </c>
       <c r="AE2" t="n">
-        <v>155667.1793524792</v>
+        <v>229657.0746452706</v>
       </c>
       <c r="AF2" t="n">
         <v>3.473168248584403e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.43229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>140810.5222353797</v>
+        <v>207738.9257669208</v>
       </c>
     </row>
   </sheetData>
@@ -18608,28 +18608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.7704126184706</v>
+        <v>179.429059781557</v>
       </c>
       <c r="AB2" t="n">
-        <v>167.9798947928635</v>
+        <v>245.5027554444592</v>
       </c>
       <c r="AC2" t="n">
-        <v>151.9481293951423</v>
+        <v>222.0723170301926</v>
       </c>
       <c r="AD2" t="n">
-        <v>122770.4126184706</v>
+        <v>179429.059781557</v>
       </c>
       <c r="AE2" t="n">
-        <v>167979.8947928635</v>
+        <v>245502.7554444592</v>
       </c>
       <c r="AF2" t="n">
         <v>1.836270093479777e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>151948.1293951423</v>
+        <v>222072.3170301926</v>
       </c>
     </row>
     <row r="3">
@@ -18714,28 +18714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>111.7275485386652</v>
+        <v>168.3520302829708</v>
       </c>
       <c r="AB3" t="n">
-        <v>152.8705609821014</v>
+        <v>230.3466750004492</v>
       </c>
       <c r="AC3" t="n">
-        <v>138.2808091971913</v>
+        <v>208.3627116320616</v>
       </c>
       <c r="AD3" t="n">
-        <v>111727.5485386652</v>
+        <v>168352.0302829708</v>
       </c>
       <c r="AE3" t="n">
-        <v>152870.5609821014</v>
+        <v>230346.6750004492</v>
       </c>
       <c r="AF3" t="n">
         <v>1.977422471689768e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.96354166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>138280.8091971913</v>
+        <v>208362.7116320616</v>
       </c>
     </row>
     <row r="4">
@@ -18820,28 +18820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>111.7275485386652</v>
+        <v>168.3520302829708</v>
       </c>
       <c r="AB4" t="n">
-        <v>152.8705609821014</v>
+        <v>230.3466750004492</v>
       </c>
       <c r="AC4" t="n">
-        <v>138.2808091971913</v>
+        <v>208.3627116320616</v>
       </c>
       <c r="AD4" t="n">
-        <v>111727.5485386652</v>
+        <v>168352.0302829708</v>
       </c>
       <c r="AE4" t="n">
-        <v>152870.5609821014</v>
+        <v>230346.6750004492</v>
       </c>
       <c r="AF4" t="n">
         <v>1.977422471689768e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.96354166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>138280.8091971913</v>
+        <v>208362.7116320616</v>
       </c>
     </row>
   </sheetData>
@@ -19117,28 +19117,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>136.0351534285342</v>
+        <v>202.8856236536079</v>
       </c>
       <c r="AB2" t="n">
-        <v>186.1292983682468</v>
+        <v>277.5970609647464</v>
       </c>
       <c r="AC2" t="n">
-        <v>168.3653793661446</v>
+        <v>251.1035870762745</v>
       </c>
       <c r="AD2" t="n">
-        <v>136035.1534285342</v>
+        <v>202885.6236536079</v>
       </c>
       <c r="AE2" t="n">
-        <v>186129.2983682468</v>
+        <v>277597.0609647464</v>
       </c>
       <c r="AF2" t="n">
         <v>1.512544870153244e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.76041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>168365.3793661446</v>
+        <v>251103.5870762745</v>
       </c>
     </row>
     <row r="3">
@@ -19223,28 +19223,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>124.2425291812274</v>
+        <v>181.5722168759597</v>
       </c>
       <c r="AB3" t="n">
-        <v>169.9941096192255</v>
+        <v>248.4351175304375</v>
       </c>
       <c r="AC3" t="n">
-        <v>153.7701103854451</v>
+        <v>224.7248185942821</v>
       </c>
       <c r="AD3" t="n">
-        <v>124242.5291812274</v>
+        <v>181572.2168759597</v>
       </c>
       <c r="AE3" t="n">
-        <v>169994.1096192255</v>
+        <v>248435.1175304375</v>
       </c>
       <c r="AF3" t="n">
         <v>1.672936896147744e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.53645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>153770.1103854451</v>
+        <v>224724.8185942821</v>
       </c>
     </row>
     <row r="4">
@@ -19329,28 +19329,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>123.5588928346638</v>
+        <v>180.7870953029109</v>
       </c>
       <c r="AB4" t="n">
-        <v>169.0587282099506</v>
+        <v>247.3608795570735</v>
       </c>
       <c r="AC4" t="n">
-        <v>152.9240004650551</v>
+        <v>223.7531043853932</v>
       </c>
       <c r="AD4" t="n">
-        <v>123558.8928346638</v>
+        <v>180787.0953029109</v>
       </c>
       <c r="AE4" t="n">
-        <v>169058.7282099506</v>
+        <v>247360.8795570735</v>
       </c>
       <c r="AF4" t="n">
         <v>1.707219330849159e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.30208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>152924.0004650551</v>
+        <v>223753.1043853931</v>
       </c>
     </row>
     <row r="5">
@@ -19435,28 +19435,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>123.3899213034825</v>
+        <v>171.1315066601692</v>
       </c>
       <c r="AB5" t="n">
-        <v>168.8275339064907</v>
+        <v>234.1496772015737</v>
       </c>
       <c r="AC5" t="n">
-        <v>152.7148710214341</v>
+        <v>211.8027606406591</v>
       </c>
       <c r="AD5" t="n">
-        <v>123389.9213034825</v>
+        <v>171131.5066601692</v>
       </c>
       <c r="AE5" t="n">
-        <v>168827.5339064907</v>
+        <v>234149.6772015737</v>
       </c>
       <c r="AF5" t="n">
         <v>1.724112446760571e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.19791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>152714.8710214341</v>
+        <v>211802.7606406591</v>
       </c>
     </row>
   </sheetData>
